--- a/Excel/镇魂街/章节关卡/个人BOSS.xlsx
+++ b/Excel/镇魂街/章节关卡/个人BOSS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\章节关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602D8EA-16D2-41D6-96E3-EB4920059EE0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="solo_boss" sheetId="5" r:id="rId1"/>
@@ -15,12 +21,19 @@
     <sheet name="solo_boss_category" sheetId="7" r:id="rId6"/>
     <sheet name="solo_boss_constant" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
   <si>
     <t>标识</t>
   </si>
@@ -246,6 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,6 +270,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,15 +326,6 @@
     <t>角色ID</t>
   </si>
   <si>
-    <t>1301001#1302001</t>
-  </si>
-  <si>
-    <t>1301002#1302002</t>
-  </si>
-  <si>
-    <t>1301008#1302008</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -449,14 +455,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,177 +468,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,194 +531,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -873,251 +555,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,61 +651,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1552,26 +948,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="4" max="4" width="9" style="11"/>
     <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1044,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1057,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="1:5">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1066,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="19">
         <v>101</v>
@@ -1685,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="19">
         <v>102</v>
@@ -1700,7 +1096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="19">
         <v>103</v>
@@ -1716,22 +1112,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="11"/>
     <col min="3" max="3" width="17.375" style="11" customWidth="1"/>
@@ -1745,7 +1140,7 @@
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:11">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:11">
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1295,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="14.25" spans="1:11">
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -1933,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:11">
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1343,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="9">
         <v>1501001</v>
@@ -1981,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="9">
         <v>1501002</v>
@@ -2015,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="9">
         <v>1501003</v>
@@ -2049,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="9">
         <v>1502001</v>
@@ -2082,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="9">
         <v>1502002</v>
@@ -2116,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="9">
         <v>1502003</v>
@@ -2150,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="9">
         <v>1502004</v>
@@ -2184,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="9">
         <v>1503001</v>
@@ -2217,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="9">
         <v>1503002</v>
@@ -2252,22 +1647,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="23" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="23" customWidth="1"/>
@@ -2278,7 +1672,7 @@
     <col min="7" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +1689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2312,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="40.5" spans="1:5">
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -2346,7 +1740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -2355,7 +1749,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2381,7 +1775,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="25">
         <v>1</v>
@@ -2396,7 +1790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="25">
         <v>2</v>
@@ -2411,7 +1805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="25">
         <v>3</v>
@@ -2426,7 +1820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="25">
         <v>4</v>
@@ -2441,7 +1835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="25">
         <v>5</v>
@@ -2456,7 +1850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="25">
         <v>6</v>
@@ -2471,7 +1865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="25">
         <v>7</v>
@@ -2486,7 +1880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="25">
         <v>8</v>
@@ -2501,7 +1895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="25">
         <v>9</v>
@@ -2517,21 +1911,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="23" customWidth="1"/>
@@ -2551,7 +1944,7 @@
     <col min="18" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +1997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:17">
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2657,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="27" spans="1:17">
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +2156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:17">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:17">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2230,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:17">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2251,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="25">
         <v>1</v>
@@ -2887,12 +2280,12 @@
       <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>90</v>
+      <c r="K8" s="26">
+        <v>1306001</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="25">
         <v>1</v>
@@ -2902,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="26">
-        <v>1101001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1201001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="25">
         <v>2</v>
@@ -2934,12 +2327,12 @@
       <c r="J9" s="25">
         <v>1</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>91</v>
+      <c r="K9" s="26">
+        <v>1306002</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="25">
         <v>1</v>
@@ -2949,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="26">
-        <v>1101002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1201002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="25">
         <v>3</v>
@@ -2981,12 +2374,12 @@
       <c r="J10" s="25">
         <v>1</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>92</v>
+      <c r="K10" s="26">
+        <v>1306003</v>
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="25">
         <v>1</v>
@@ -2996,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="26">
-        <v>1101008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1201003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="25">
         <v>4</v>
@@ -3032,7 +2425,9 @@
         <v>1303002</v>
       </c>
       <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25">
         <v>2</v>
@@ -3044,7 +2439,7 @@
         <v>1102002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="25">
         <v>5</v>
@@ -3077,7 +2472,9 @@
         <v>1303004</v>
       </c>
       <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25">
         <v>3</v>
@@ -3089,7 +2486,7 @@
         <v>1102004</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="25">
         <v>6</v>
@@ -3122,7 +2519,9 @@
         <v>1303015</v>
       </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25">
         <v>4</v>
@@ -3135,28 +2534,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3164,13 +2562,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3181,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -3198,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:4">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -3206,13 +2604,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -3220,7 +2618,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +2628,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -3238,65 +2636,64 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="19">
         <v>2</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="19">
         <v>3</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="11" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3304,19 +2701,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3336,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:6">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -3364,19 +2761,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -3386,7 +2783,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -3412,16 +2809,16 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="19">
         <v>101001</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -3430,16 +2827,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="19">
         <v>101002</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -3448,16 +2845,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="19">
         <v>101003</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
@@ -3466,16 +2863,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="19">
         <v>102001</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E11" s="20">
         <v>2</v>
@@ -3484,16 +2881,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="19">
         <v>102002</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -3502,16 +2899,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="19">
         <v>103001</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
@@ -3520,16 +2917,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="19">
         <v>103002</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -3538,16 +2935,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="19">
         <v>103003</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="9">
         <v>3</v>
@@ -3556,16 +2953,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="19">
         <v>103004</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
@@ -3574,16 +2971,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="19">
         <v>103005</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="9">
         <v>3</v>
@@ -3593,28 +2990,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="29.375" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,19 +3018,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3682,19 +3078,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3704,7 +3100,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3716,7 +3112,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3726,7 +3122,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="9">
         <v>1</v>
@@ -3735,7 +3131,7 @@
         <v>1604002</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
@@ -3745,7 +3141,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>